--- a/dados_Truck&Vamos.xlsx
+++ b/dados_Truck&Vamos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.vinicius\Documents\Vscode\Caminhoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3762E4F2-7178-48C4-B073-78DC0848FE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD8D182-4BC9-42D1-9991-8A7448345B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QueroTruck" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11095" uniqueCount="1838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11095" uniqueCount="1844">
   <si>
     <t>Marca</t>
   </si>
@@ -4349,9 +4349,6 @@
     <t>VOLKSWAGEN/TGX 29.480 6X4 T</t>
   </si>
   <si>
-    <t>MERCEDES/-BENZ/AXOR 3344 S</t>
-  </si>
-  <si>
     <t>XF 105 FTT 460 6X4 _DIESEL_E5_</t>
   </si>
   <si>
@@ -4367,9 +4364,6 @@
     <t>VW/29.520</t>
   </si>
   <si>
-    <t>MERCEDES</t>
-  </si>
-  <si>
     <t>GUARULHOS (SP)</t>
   </si>
   <si>
@@ -4601,27 +4595,21 @@
     <t>146.103 km</t>
   </si>
   <si>
-    <t>264.439 km</t>
-  </si>
-  <si>
-    <t>79.817 km</t>
+    <t>300.733 km</t>
+  </si>
+  <si>
+    <t>206.488 km</t>
+  </si>
+  <si>
+    <t>210.999 km</t>
+  </si>
+  <si>
+    <t>294.571 km</t>
   </si>
   <si>
     <t>40.724 km</t>
   </si>
   <si>
-    <t>300.733 km</t>
-  </si>
-  <si>
-    <t>206.488 km</t>
-  </si>
-  <si>
-    <t>210.999 km</t>
-  </si>
-  <si>
-    <t>294.571 km</t>
-  </si>
-  <si>
     <t>288.949 km</t>
   </si>
   <si>
@@ -5084,6 +5072,39 @@
     <t>298.725 km</t>
   </si>
   <si>
+    <t>433.216 km</t>
+  </si>
+  <si>
+    <t>334.667 km</t>
+  </si>
+  <si>
+    <t>292.485 km</t>
+  </si>
+  <si>
+    <t>287.111 km</t>
+  </si>
+  <si>
+    <t>444.273 km</t>
+  </si>
+  <si>
+    <t>492.844 km</t>
+  </si>
+  <si>
+    <t>486.240 km</t>
+  </si>
+  <si>
+    <t>479.803 km</t>
+  </si>
+  <si>
+    <t>305.571 km</t>
+  </si>
+  <si>
+    <t>209.018 km</t>
+  </si>
+  <si>
+    <t>344.767 km</t>
+  </si>
+  <si>
     <t>195.711 km</t>
   </si>
   <si>
@@ -5273,6 +5294,42 @@
     <t>1.152.200 km</t>
   </si>
   <si>
+    <t>1.024.592 km</t>
+  </si>
+  <si>
+    <t>346.911 km</t>
+  </si>
+  <si>
+    <t>654.137 km</t>
+  </si>
+  <si>
+    <t>1.194.508 km</t>
+  </si>
+  <si>
+    <t>270.073 km</t>
+  </si>
+  <si>
+    <t>1.045.280 km</t>
+  </si>
+  <si>
+    <t>617.130 km</t>
+  </si>
+  <si>
+    <t>1.188.289 km</t>
+  </si>
+  <si>
+    <t>346.771 km</t>
+  </si>
+  <si>
+    <t>1.079.081 km</t>
+  </si>
+  <si>
+    <t>1.079.066 km</t>
+  </si>
+  <si>
+    <t>1.261.171 km</t>
+  </si>
+  <si>
     <t>1.117.914 km</t>
   </si>
   <si>
@@ -5303,36 +5360,6 @@
     <t>268.234 km</t>
   </si>
   <si>
-    <t>472.218 km</t>
-  </si>
-  <si>
-    <t>567.440 km</t>
-  </si>
-  <si>
-    <t>450.294 km</t>
-  </si>
-  <si>
-    <t>553.685 km</t>
-  </si>
-  <si>
-    <t>335.880 km</t>
-  </si>
-  <si>
-    <t>888.000 km</t>
-  </si>
-  <si>
-    <t>238.088 km</t>
-  </si>
-  <si>
-    <t>513.573 km</t>
-  </si>
-  <si>
-    <t>595.894 km</t>
-  </si>
-  <si>
-    <t>474.748 km</t>
-  </si>
-  <si>
     <t>529.531 km</t>
   </si>
   <si>
@@ -5405,21 +5432,9 @@
     <t>2018/2018</t>
   </si>
   <si>
-    <t>2017/2017</t>
-  </si>
-  <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
-    <t>2016/2016</t>
-  </si>
-  <si>
     <t>2014/2015</t>
   </si>
   <si>
-    <t>2015/2015</t>
-  </si>
-  <si>
     <t>2014/2014</t>
   </si>
   <si>
@@ -5528,13 +5543,16 @@
     <t>R$ 414.750,00</t>
   </si>
   <si>
+    <t>R$ 208.950,00</t>
+  </si>
+  <si>
+    <t>R$ 294.000,00</t>
+  </si>
+  <si>
+    <t>R$ 408.975,00</t>
+  </si>
+  <si>
     <t>R$ 257.250,00</t>
-  </si>
-  <si>
-    <t>R$ 294.000,00</t>
-  </si>
-  <si>
-    <t>R$ 231.000,00</t>
   </si>
 </sst>
 </file>
@@ -5904,7 +5922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1045"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -29963,8 +29981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G540"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30007,16 +30025,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D2" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="E2" t="s">
-        <v>1781</v>
+        <v>1790</v>
       </c>
       <c r="F2" t="s">
-        <v>1804</v>
+        <v>1809</v>
       </c>
       <c r="G2" t="s">
         <v>156</v>
@@ -30030,16 +30048,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D3" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="E3" t="s">
-        <v>1782</v>
+        <v>1791</v>
       </c>
       <c r="F3" t="s">
-        <v>1805</v>
+        <v>1810</v>
       </c>
       <c r="G3" t="s">
         <v>156</v>
@@ -30053,16 +30071,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="D4" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="E4" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F4" t="s">
-        <v>1806</v>
+        <v>1811</v>
       </c>
       <c r="G4" t="s">
         <v>156</v>
@@ -30076,16 +30094,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D5" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="E5" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F5" t="s">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="G5" t="s">
         <v>156</v>
@@ -30122,16 +30140,16 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D7" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="E7" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F7" t="s">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="G7" t="s">
         <v>156</v>
@@ -30168,16 +30186,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D9" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="E9" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F9" t="s">
-        <v>1806</v>
+        <v>1811</v>
       </c>
       <c r="G9" t="s">
         <v>156</v>
@@ -30191,16 +30209,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D10" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="E10" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F10" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="G10" t="s">
         <v>156</v>
@@ -30214,16 +30232,16 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D11" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="E11" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F11" t="s">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="G11" t="s">
         <v>156</v>
@@ -30237,16 +30255,16 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D12" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="E12" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F12" t="s">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="G12" t="s">
         <v>156</v>
@@ -30260,16 +30278,16 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D13" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E13" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F13" t="s">
-        <v>1809</v>
+        <v>1814</v>
       </c>
       <c r="G13" t="s">
         <v>156</v>
@@ -30306,16 +30324,16 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D15" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="E15" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F15" t="s">
-        <v>1806</v>
+        <v>1811</v>
       </c>
       <c r="G15" t="s">
         <v>156</v>
@@ -30329,16 +30347,16 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D16" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="E16" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F16" t="s">
-        <v>1810</v>
+        <v>1815</v>
       </c>
       <c r="G16" t="s">
         <v>156</v>
@@ -30352,16 +30370,16 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="D17" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="E17" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F17" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="G17" t="s">
         <v>156</v>
@@ -30375,16 +30393,16 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D18" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E18" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F18" t="s">
-        <v>1809</v>
+        <v>1814</v>
       </c>
       <c r="G18" t="s">
         <v>156</v>
@@ -30395,19 +30413,19 @@
         <v>1417</v>
       </c>
       <c r="B19" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C19" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="D19" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="E19" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F19" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="G19" t="s">
         <v>156</v>
@@ -30421,16 +30439,16 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D20" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="E20" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F20" t="s">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="G20" t="s">
         <v>156</v>
@@ -30467,16 +30485,16 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D22" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="E22" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F22" t="s">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="G22" t="s">
         <v>156</v>
@@ -30490,16 +30508,16 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D23" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="E23" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F23" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="G23" t="s">
         <v>156</v>
@@ -30513,16 +30531,16 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D24" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="E24" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F24" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="G24" t="s">
         <v>156</v>
@@ -30536,16 +30554,16 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D25" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E25" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F25" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
       <c r="G25" t="s">
         <v>156</v>
@@ -30559,16 +30577,16 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D26" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="E26" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F26" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="G26" t="s">
         <v>156</v>
@@ -30582,16 +30600,16 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="D27" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="E27" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F27" t="s">
-        <v>1812</v>
+        <v>1817</v>
       </c>
       <c r="G27" t="s">
         <v>156</v>
@@ -30602,19 +30620,19 @@
         <v>1420</v>
       </c>
       <c r="B28" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C28" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="D28" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="E28" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F28" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="G28" t="s">
         <v>156</v>
@@ -30628,16 +30646,16 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D29" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="E29" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F29" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="G29" t="s">
         <v>156</v>
@@ -30651,13 +30669,13 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D30" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="E30" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F30" t="s">
         <v>128</v>
@@ -30674,16 +30692,16 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D31" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="E31" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F31" t="s">
-        <v>1809</v>
+        <v>1814</v>
       </c>
       <c r="G31" t="s">
         <v>156</v>
@@ -30697,13 +30715,13 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D32" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="E32" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F32" t="s">
         <v>128</v>
@@ -30720,16 +30738,16 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D33" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="E33" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F33" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="G33" t="s">
         <v>156</v>
@@ -30743,16 +30761,16 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D34" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="E34" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F34" t="s">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="G34" t="s">
         <v>156</v>
@@ -30789,16 +30807,16 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D36" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="E36" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F36" t="s">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="G36" t="s">
         <v>156</v>
@@ -30812,16 +30830,16 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D37" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="E37" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F37" t="s">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="G37" t="s">
         <v>156</v>
@@ -30835,13 +30853,13 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D38" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="E38" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F38" t="s">
         <v>372</v>
@@ -30858,16 +30876,16 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="D39" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="E39" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F39" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
       <c r="G39" t="s">
         <v>156</v>
@@ -30881,13 +30899,13 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D40" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="E40" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F40" t="s">
         <v>210</v>
@@ -30927,13 +30945,13 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D42" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="E42" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F42" t="s">
         <v>128</v>
@@ -30950,16 +30968,16 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D43" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="E43" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F43" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="G43" t="s">
         <v>156</v>
@@ -30973,16 +30991,16 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D44" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="E44" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F44" t="s">
-        <v>1806</v>
+        <v>1811</v>
       </c>
       <c r="G44" t="s">
         <v>156</v>
@@ -30996,13 +31014,13 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="D45" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="E45" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F45" t="s">
         <v>174</v>
@@ -31019,13 +31037,13 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="D46" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="E46" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F46" t="s">
         <v>197</v>
@@ -31039,19 +31057,19 @@
         <v>1417</v>
       </c>
       <c r="B47" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C47" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="D47" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="E47" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F47" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="G47" t="s">
         <v>156</v>
@@ -31065,16 +31083,16 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D48" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="E48" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F48" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="G48" t="s">
         <v>156</v>
@@ -31088,16 +31106,16 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D49" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="E49" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F49" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="G49" t="s">
         <v>156</v>
@@ -31111,13 +31129,13 @@
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D50" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="E50" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F50" t="s">
         <v>128</v>
@@ -31134,13 +31152,13 @@
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="D51" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E51" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F51" t="s">
         <v>139</v>
@@ -31157,16 +31175,16 @@
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D52" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="E52" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F52" t="s">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="G52" t="s">
         <v>156</v>
@@ -31180,13 +31198,13 @@
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="D53" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="E53" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F53" t="s">
         <v>174</v>
@@ -31203,13 +31221,13 @@
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D54" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="E54" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F54" t="s">
         <v>210</v>
@@ -31226,16 +31244,16 @@
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="D55" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="E55" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F55" t="s">
-        <v>1813</v>
+        <v>1818</v>
       </c>
       <c r="G55" t="s">
         <v>156</v>
@@ -31249,13 +31267,13 @@
         <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D56" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="E56" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F56" t="s">
         <v>372</v>
@@ -31272,16 +31290,16 @@
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D57" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="E57" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F57" t="s">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="G57" t="s">
         <v>156</v>
@@ -31295,16 +31313,16 @@
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D58" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E58" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F58" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
       <c r="G58" t="s">
         <v>156</v>
@@ -31318,16 +31336,16 @@
         <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="D59" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="E59" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F59" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="G59" t="s">
         <v>156</v>
@@ -31341,16 +31359,16 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D60" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="E60" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F60" t="s">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="G60" t="s">
         <v>156</v>
@@ -31364,16 +31382,16 @@
         <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D61" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="E61" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F61" t="s">
-        <v>1808</v>
+        <v>1813</v>
       </c>
       <c r="G61" t="s">
         <v>156</v>
@@ -31387,16 +31405,16 @@
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D62" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="E62" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F62" t="s">
-        <v>1811</v>
+        <v>1816</v>
       </c>
       <c r="G62" t="s">
         <v>156</v>
@@ -31410,13 +31428,13 @@
         <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D63" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="E63" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F63" t="s">
         <v>210</v>
@@ -31433,13 +31451,13 @@
         <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="D64" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="E64" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F64" t="s">
         <v>197</v>
@@ -31456,16 +31474,16 @@
         <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D65" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="E65" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F65" t="s">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="G65" t="s">
         <v>156</v>
@@ -31479,16 +31497,16 @@
         <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D66" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E66" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F66" t="s">
-        <v>1809</v>
+        <v>1814</v>
       </c>
       <c r="G66" t="s">
         <v>156</v>
@@ -31502,16 +31520,16 @@
         <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D67" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="E67" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F67" t="s">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="G67" t="s">
         <v>156</v>
@@ -31525,16 +31543,16 @@
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D68" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="E68" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F68" t="s">
-        <v>1807</v>
+        <v>1812</v>
       </c>
       <c r="G68" t="s">
         <v>156</v>
@@ -31548,13 +31566,13 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D69" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="E69" t="s">
-        <v>1783</v>
+        <v>1792</v>
       </c>
       <c r="F69" t="s">
         <v>372</v>
@@ -31571,13 +31589,13 @@
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D70" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="E70" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F70" t="s">
         <v>192</v>
@@ -31594,13 +31612,13 @@
         <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D71" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="E71" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F71" t="s">
         <v>354</v>
@@ -31617,13 +31635,13 @@
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D72" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="E72" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F72" t="s">
         <v>192</v>
@@ -31640,13 +31658,13 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="D73" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="E73" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F73" t="s">
         <v>192</v>
@@ -31663,13 +31681,13 @@
         <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D74" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E74" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F74" t="s">
         <v>372</v>
@@ -31686,13 +31704,13 @@
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D75" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="E75" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F75" t="s">
         <v>233</v>
@@ -31709,13 +31727,13 @@
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D76" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="E76" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F76" t="s">
         <v>192</v>
@@ -31732,13 +31750,13 @@
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D77" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="E77" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F77" t="s">
         <v>192</v>
@@ -31755,13 +31773,13 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D78" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="E78" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F78" t="s">
         <v>192</v>
@@ -31778,13 +31796,13 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="D79" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="E79" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F79" t="s">
         <v>238</v>
@@ -31824,16 +31842,16 @@
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D81" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="E81" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F81" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
       <c r="G81" t="s">
         <v>156</v>
@@ -31847,13 +31865,13 @@
         <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D82" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="E82" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F82" t="s">
         <v>291</v>
@@ -31870,16 +31888,16 @@
         <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="D83" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="E83" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F83" t="s">
-        <v>1815</v>
+        <v>1820</v>
       </c>
       <c r="G83" t="s">
         <v>156</v>
@@ -31893,13 +31911,13 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D84" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="E84" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F84" t="s">
         <v>192</v>
@@ -31916,13 +31934,13 @@
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D85" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="E85" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F85" t="s">
         <v>192</v>
@@ -31933,22 +31951,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>1450</v>
+        <v>1458</v>
       </c>
       <c r="D86" t="s">
-        <v>1526</v>
+        <v>1515</v>
       </c>
       <c r="E86" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F86" t="s">
-        <v>192</v>
+        <v>372</v>
       </c>
       <c r="G86" t="s">
         <v>156</v>
@@ -31956,22 +31974,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="D87" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="E87" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F87" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="G87" t="s">
         <v>156</v>
@@ -31985,13 +32003,13 @@
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>1464</v>
+        <v>1448</v>
       </c>
       <c r="D88" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="E88" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F88" t="s">
         <v>192</v>
@@ -32008,13 +32026,13 @@
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>1455</v>
+        <v>1462</v>
       </c>
       <c r="D89" t="s">
         <v>1513</v>
       </c>
       <c r="E89" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F89" t="s">
         <v>192</v>
@@ -32025,22 +32043,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D90" t="s">
-        <v>1527</v>
+        <v>1511</v>
       </c>
       <c r="E90" t="s">
-        <v>1785</v>
+        <v>1793</v>
       </c>
       <c r="F90" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="G90" t="s">
         <v>156</v>
@@ -32048,22 +32066,22 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>156</v>
+        <v>1414</v>
       </c>
       <c r="B91" t="s">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>156</v>
+        <v>1460</v>
       </c>
       <c r="D91" t="s">
-        <v>156</v>
+        <v>1518</v>
       </c>
       <c r="E91" t="s">
-        <v>156</v>
+        <v>1793</v>
       </c>
       <c r="F91" t="s">
-        <v>156</v>
+        <v>238</v>
       </c>
       <c r="G91" t="s">
         <v>156</v>
@@ -32071,22 +32089,22 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>1422</v>
+        <v>156</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="C92" t="s">
-        <v>1459</v>
+        <v>156</v>
       </c>
       <c r="D92" t="s">
-        <v>1524</v>
+        <v>156</v>
       </c>
       <c r="E92" t="s">
-        <v>1784</v>
+        <v>156</v>
       </c>
       <c r="F92" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="G92" t="s">
         <v>156</v>
@@ -32094,22 +32112,22 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>1424</v>
+        <v>1414</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D93" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="E93" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F93" t="s">
-        <v>372</v>
+        <v>1819</v>
       </c>
       <c r="G93" t="s">
         <v>156</v>
@@ -32117,22 +32135,22 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>1421</v>
+        <v>1425</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C94" t="s">
         <v>1453</v>
       </c>
       <c r="D94" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="E94" t="s">
-        <v>1784</v>
+        <v>1794</v>
       </c>
       <c r="F94" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c r="G94" t="s">
         <v>156</v>
@@ -32140,22 +32158,22 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="D95" t="s">
-        <v>1528</v>
+        <v>1521</v>
       </c>
       <c r="E95" t="s">
-        <v>1785</v>
+        <v>1793</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>1820</v>
       </c>
       <c r="G95" t="s">
         <v>156</v>
@@ -32169,13 +32187,13 @@
         <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>1465</v>
+        <v>1457</v>
       </c>
       <c r="D96" t="s">
-        <v>1516</v>
+        <v>1522</v>
       </c>
       <c r="E96" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F96" t="s">
         <v>192</v>
@@ -32186,22 +32204,22 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>156</v>
+        <v>1422</v>
       </c>
       <c r="B97" t="s">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>156</v>
+        <v>1450</v>
       </c>
       <c r="D97" t="s">
-        <v>156</v>
+        <v>1523</v>
       </c>
       <c r="E97" t="s">
-        <v>156</v>
+        <v>1793</v>
       </c>
       <c r="F97" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="G97" t="s">
         <v>156</v>
@@ -32215,13 +32233,13 @@
         <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D98" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="E98" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F98" t="s">
         <v>192</v>
@@ -32238,13 +32256,13 @@
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D99" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="E99" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F99" t="s">
         <v>192</v>
@@ -32261,13 +32279,13 @@
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D100" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="E100" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F100" t="s">
         <v>192</v>
@@ -32284,13 +32302,13 @@
         <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D101" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="E101" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F101" t="s">
         <v>192</v>
@@ -32307,13 +32325,13 @@
         <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D102" t="s">
         <v>1528</v>
       </c>
       <c r="E102" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F102" t="s">
         <v>182</v>
@@ -32330,16 +32348,16 @@
         <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="D103" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="E103" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F103" t="s">
-        <v>1815</v>
+        <v>1820</v>
       </c>
       <c r="G103" t="s">
         <v>156</v>
@@ -32353,13 +32371,13 @@
         <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D104" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="E104" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F104" t="s">
         <v>192</v>
@@ -32399,13 +32417,13 @@
         <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D106" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="E106" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F106" t="s">
         <v>354</v>
@@ -32422,13 +32440,13 @@
         <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D107" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="E107" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F107" t="s">
         <v>188</v>
@@ -32445,16 +32463,16 @@
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D108" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="E108" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F108" t="s">
-        <v>1816</v>
+        <v>1821</v>
       </c>
       <c r="G108" t="s">
         <v>156</v>
@@ -32491,13 +32509,13 @@
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D110" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="E110" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F110" t="s">
         <v>192</v>
@@ -32514,13 +32532,13 @@
         <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D111" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="E111" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F111" t="s">
         <v>192</v>
@@ -32537,13 +32555,13 @@
         <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D112" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="E112" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F112" t="s">
         <v>192</v>
@@ -32560,16 +32578,16 @@
         <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D113" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="E113" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F113" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
       <c r="G113" t="s">
         <v>156</v>
@@ -32583,16 +32601,16 @@
         <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="D114" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="E114" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F114" t="s">
-        <v>1815</v>
+        <v>1820</v>
       </c>
       <c r="G114" t="s">
         <v>156</v>
@@ -32606,13 +32624,13 @@
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D115" t="s">
         <v>1528</v>
       </c>
       <c r="E115" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F115" t="s">
         <v>182</v>
@@ -32629,13 +32647,13 @@
         <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="D116" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="E116" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F116" t="s">
         <v>238</v>
@@ -32652,16 +32670,16 @@
         <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="D117" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="E117" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F117" t="s">
-        <v>1818</v>
+        <v>1823</v>
       </c>
       <c r="G117" t="s">
         <v>156</v>
@@ -32698,13 +32716,13 @@
         <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D119" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="E119" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F119" t="s">
         <v>354</v>
@@ -32721,13 +32739,13 @@
         <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="D120" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="E120" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F120" t="s">
         <v>192</v>
@@ -32744,13 +32762,13 @@
         <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D121" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="E121" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F121" t="s">
         <v>192</v>
@@ -32767,13 +32785,13 @@
         <v>10</v>
       </c>
       <c r="C122" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D122" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="E122" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F122" t="s">
         <v>372</v>
@@ -32790,13 +32808,13 @@
         <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D123" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="E123" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F123" t="s">
         <v>192</v>
@@ -32836,13 +32854,13 @@
         <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="D125" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="E125" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F125" t="s">
         <v>192</v>
@@ -32859,13 +32877,13 @@
         <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D126" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="E126" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F126" t="s">
         <v>192</v>
@@ -32882,16 +32900,16 @@
         <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D127" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="E127" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F127" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
       <c r="G127" t="s">
         <v>156</v>
@@ -32928,13 +32946,13 @@
         <v>10</v>
       </c>
       <c r="C129" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D129" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E129" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F129" t="s">
         <v>372</v>
@@ -33043,13 +33061,13 @@
         <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="D134" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="E134" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F134" t="s">
         <v>238</v>
@@ -33066,16 +33084,16 @@
         <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D135" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="E135" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F135" t="s">
-        <v>1816</v>
+        <v>1821</v>
       </c>
       <c r="G135" t="s">
         <v>156</v>
@@ -33089,13 +33107,13 @@
         <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D136" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E136" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F136" t="s">
         <v>372</v>
@@ -33112,16 +33130,16 @@
         <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="D137" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="E137" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F137" t="s">
-        <v>1818</v>
+        <v>1823</v>
       </c>
       <c r="G137" t="s">
         <v>156</v>
@@ -33135,13 +33153,13 @@
         <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D138" t="s">
         <v>432</v>
       </c>
       <c r="E138" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F138" t="s">
         <v>192</v>
@@ -33158,13 +33176,13 @@
         <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D139" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="E139" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F139" t="s">
         <v>225</v>
@@ -33181,16 +33199,16 @@
         <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D140" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="E140" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F140" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
       <c r="G140" t="s">
         <v>156</v>
@@ -33204,13 +33222,13 @@
         <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="D141" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="E141" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F141" t="s">
         <v>174</v>
@@ -33250,13 +33268,13 @@
         <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D143" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="E143" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F143" t="s">
         <v>192</v>
@@ -33296,16 +33314,16 @@
         <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D145" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="E145" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F145" t="s">
-        <v>1820</v>
+        <v>1825</v>
       </c>
       <c r="G145" t="s">
         <v>156</v>
@@ -33319,13 +33337,13 @@
         <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D146" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="E146" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F146" t="s">
         <v>238</v>
@@ -33342,13 +33360,13 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="D147" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="E147" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F147" t="s">
         <v>279</v>
@@ -33388,13 +33406,13 @@
         <v>10</v>
       </c>
       <c r="C149" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D149" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E149" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F149" t="s">
         <v>372</v>
@@ -33411,13 +33429,13 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="D150" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="E150" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F150" t="s">
         <v>279</v>
@@ -33434,16 +33452,16 @@
         <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D151" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="E151" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F151" t="s">
-        <v>1816</v>
+        <v>1821</v>
       </c>
       <c r="G151" t="s">
         <v>156</v>
@@ -33457,13 +33475,13 @@
         <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D152" t="s">
         <v>1528</v>
       </c>
       <c r="E152" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F152" t="s">
         <v>182</v>
@@ -33503,13 +33521,13 @@
         <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="D154" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="E154" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F154" t="s">
         <v>238</v>
@@ -33526,16 +33544,16 @@
         <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D155" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="E155" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F155" t="s">
-        <v>1820</v>
+        <v>1825</v>
       </c>
       <c r="G155" t="s">
         <v>156</v>
@@ -33572,13 +33590,13 @@
         <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D157" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="E157" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F157" t="s">
         <v>192</v>
@@ -33595,16 +33613,16 @@
         <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D158" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="E158" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F158" t="s">
-        <v>1821</v>
+        <v>1826</v>
       </c>
       <c r="G158" t="s">
         <v>156</v>
@@ -33664,16 +33682,16 @@
         <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D161" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="E161" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F161" t="s">
-        <v>1818</v>
+        <v>1823</v>
       </c>
       <c r="G161" t="s">
         <v>156</v>
@@ -33687,13 +33705,13 @@
         <v>10</v>
       </c>
       <c r="C162" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="D162" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="E162" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F162" t="s">
         <v>174</v>
@@ -33733,16 +33751,16 @@
         <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D164" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="E164" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F164" t="s">
-        <v>1815</v>
+        <v>1820</v>
       </c>
       <c r="G164" t="s">
         <v>156</v>
@@ -33756,16 +33774,16 @@
         <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D165" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="E165" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F165" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
       <c r="G165" t="s">
         <v>156</v>
@@ -33779,13 +33797,13 @@
         <v>10</v>
       </c>
       <c r="C166" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D166" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="E166" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F166" t="s">
         <v>372</v>
@@ -33802,16 +33820,16 @@
         <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D167" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="E167" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F167" t="s">
-        <v>1815</v>
+        <v>1820</v>
       </c>
       <c r="G167" t="s">
         <v>156</v>
@@ -33825,13 +33843,13 @@
         <v>10</v>
       </c>
       <c r="C168" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D168" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="E168" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F168" t="s">
         <v>372</v>
@@ -33848,16 +33866,16 @@
         <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D169" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="E169" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F169" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
       <c r="G169" t="s">
         <v>156</v>
@@ -33894,16 +33912,16 @@
         <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D171" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="E171" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F171" t="s">
-        <v>1815</v>
+        <v>1820</v>
       </c>
       <c r="G171" t="s">
         <v>156</v>
@@ -33917,13 +33935,13 @@
         <v>10</v>
       </c>
       <c r="C172" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D172" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="E172" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F172" t="s">
         <v>372</v>
@@ -33940,16 +33958,16 @@
         <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D173" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="E173" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F173" t="s">
-        <v>1815</v>
+        <v>1820</v>
       </c>
       <c r="G173" t="s">
         <v>156</v>
@@ -33963,13 +33981,13 @@
         <v>10</v>
       </c>
       <c r="C174" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D174" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="E174" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F174" t="s">
         <v>372</v>
@@ -33986,13 +34004,13 @@
         <v>10</v>
       </c>
       <c r="C175" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D175" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="E175" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F175" t="s">
         <v>372</v>
@@ -34009,13 +34027,13 @@
         <v>10</v>
       </c>
       <c r="C176" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D176" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="E176" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F176" t="s">
         <v>372</v>
@@ -34055,13 +34073,13 @@
         <v>10</v>
       </c>
       <c r="C178" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D178" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="E178" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F178" t="s">
         <v>303</v>
@@ -34078,13 +34096,13 @@
         <v>10</v>
       </c>
       <c r="C179" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="D179" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="E179" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F179" t="s">
         <v>174</v>
@@ -34101,13 +34119,13 @@
         <v>10</v>
       </c>
       <c r="C180" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D180" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="E180" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F180" t="s">
         <v>372</v>
@@ -34147,13 +34165,13 @@
         <v>10</v>
       </c>
       <c r="C182" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D182" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="E182" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F182" t="s">
         <v>372</v>
@@ -34193,13 +34211,13 @@
         <v>10</v>
       </c>
       <c r="C184" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D184" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="E184" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F184" t="s">
         <v>372</v>
@@ -34239,13 +34257,13 @@
         <v>10</v>
       </c>
       <c r="C186" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D186" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="E186" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F186" t="s">
         <v>372</v>
@@ -34262,16 +34280,16 @@
         <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D187" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="E187" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F187" t="s">
-        <v>1815</v>
+        <v>1820</v>
       </c>
       <c r="G187" t="s">
         <v>156</v>
@@ -34285,13 +34303,13 @@
         <v>10</v>
       </c>
       <c r="C188" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D188" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="E188" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F188" t="s">
         <v>372</v>
@@ -34308,13 +34326,13 @@
         <v>10</v>
       </c>
       <c r="C189" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D189" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="E189" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F189" t="s">
         <v>372</v>
@@ -34331,13 +34349,13 @@
         <v>10</v>
       </c>
       <c r="C190" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D190" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="E190" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F190" t="s">
         <v>372</v>
@@ -34377,13 +34395,13 @@
         <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="D192" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="E192" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F192" t="s">
         <v>238</v>
@@ -34400,13 +34418,13 @@
         <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D193" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="E193" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F193" t="s">
         <v>354</v>
@@ -34423,16 +34441,16 @@
         <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D194" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="E194" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F194" t="s">
-        <v>1818</v>
+        <v>1823</v>
       </c>
       <c r="G194" t="s">
         <v>156</v>
@@ -34446,13 +34464,13 @@
         <v>10</v>
       </c>
       <c r="C195" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D195" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="E195" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F195" t="s">
         <v>372</v>
@@ -34469,16 +34487,16 @@
         <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D196" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="E196" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F196" t="s">
-        <v>1815</v>
+        <v>1820</v>
       </c>
       <c r="G196" t="s">
         <v>156</v>
@@ -34538,13 +34556,13 @@
         <v>10</v>
       </c>
       <c r="C199" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D199" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="E199" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F199" t="s">
         <v>372</v>
@@ -34584,13 +34602,13 @@
         <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="D201" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="E201" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F201" t="s">
         <v>174</v>
@@ -34630,13 +34648,13 @@
         <v>10</v>
       </c>
       <c r="C203" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D203" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E203" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F203" t="s">
         <v>372</v>
@@ -34653,13 +34671,13 @@
         <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D204" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="E204" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F204" t="s">
         <v>354</v>
@@ -34745,13 +34763,13 @@
         <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="D208" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="E208" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F208" t="s">
         <v>279</v>
@@ -34791,13 +34809,13 @@
         <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D210" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="E210" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F210" t="s">
         <v>354</v>
@@ -34837,13 +34855,13 @@
         <v>10</v>
       </c>
       <c r="C212" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D212" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="E212" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F212" t="s">
         <v>372</v>
@@ -34860,13 +34878,13 @@
         <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="D213" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="E213" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F213" t="s">
         <v>270</v>
@@ -34883,16 +34901,16 @@
         <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D214" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="E214" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F214" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
       <c r="G214" t="s">
         <v>156</v>
@@ -34906,16 +34924,16 @@
         <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D215" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="E215" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F215" t="s">
-        <v>1815</v>
+        <v>1820</v>
       </c>
       <c r="G215" t="s">
         <v>156</v>
@@ -34929,13 +34947,13 @@
         <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D216" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="E216" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F216" t="s">
         <v>233</v>
@@ -34952,13 +34970,13 @@
         <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D217" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="E217" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F217" t="s">
         <v>192</v>
@@ -34975,13 +34993,13 @@
         <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D218" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="E218" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F218" t="s">
         <v>279</v>
@@ -34998,13 +35016,13 @@
         <v>10</v>
       </c>
       <c r="C219" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D219" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="E219" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F219" t="s">
         <v>174</v>
@@ -35067,16 +35085,16 @@
         <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="D222" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="E222" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F222" t="s">
-        <v>1818</v>
+        <v>1823</v>
       </c>
       <c r="G222" t="s">
         <v>156</v>
@@ -35090,13 +35108,13 @@
         <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="D223" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="E223" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F223" t="s">
         <v>238</v>
@@ -35136,16 +35154,16 @@
         <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D225" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="E225" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F225" t="s">
-        <v>1815</v>
+        <v>1820</v>
       </c>
       <c r="G225" t="s">
         <v>156</v>
@@ -35182,16 +35200,16 @@
         <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D227" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="E227" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F227" t="s">
-        <v>1814</v>
+        <v>1819</v>
       </c>
       <c r="G227" t="s">
         <v>156</v>
@@ -35205,13 +35223,13 @@
         <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D228" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="E228" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F228" t="s">
         <v>332</v>
@@ -35228,13 +35246,13 @@
         <v>10</v>
       </c>
       <c r="C229" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D229" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="E229" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F229" t="s">
         <v>372</v>
@@ -35251,13 +35269,13 @@
         <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="D230" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="E230" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F230" t="s">
         <v>238</v>
@@ -35274,13 +35292,13 @@
         <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="D231" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="E231" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F231" t="s">
         <v>210</v>
@@ -35297,13 +35315,13 @@
         <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D232" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="E232" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F232" t="s">
         <v>233</v>
@@ -35320,13 +35338,13 @@
         <v>7</v>
       </c>
       <c r="C233" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D233" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="E233" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F233" t="s">
         <v>279</v>
@@ -35343,13 +35361,13 @@
         <v>10</v>
       </c>
       <c r="C234" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D234" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="E234" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F234" t="s">
         <v>172</v>
@@ -35366,13 +35384,13 @@
         <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="D235" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="E235" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F235" t="s">
         <v>332</v>
@@ -35389,13 +35407,13 @@
         <v>10</v>
       </c>
       <c r="C236" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="D236" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="E236" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F236" t="s">
         <v>372</v>
@@ -35412,13 +35430,13 @@
         <v>10</v>
       </c>
       <c r="C237" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D237" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="E237" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F237" t="s">
         <v>174</v>
@@ -35435,13 +35453,13 @@
         <v>10</v>
       </c>
       <c r="C238" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D238" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E238" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F238" t="s">
         <v>372</v>
@@ -35481,13 +35499,13 @@
         <v>10</v>
       </c>
       <c r="C240" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D240" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="E240" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F240" t="s">
         <v>372</v>
@@ -35504,13 +35522,13 @@
         <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="D241" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="E241" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F241" t="s">
         <v>192</v>
@@ -35550,13 +35568,13 @@
         <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D243" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="E243" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F243" t="s">
         <v>144</v>
@@ -35619,13 +35637,13 @@
         <v>8</v>
       </c>
       <c r="C246" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="D246" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="E246" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F246" t="s">
         <v>238</v>
@@ -35642,13 +35660,13 @@
         <v>8</v>
       </c>
       <c r="C247" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="D247" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="E247" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F247" t="s">
         <v>270</v>
@@ -35665,16 +35683,16 @@
         <v>8</v>
       </c>
       <c r="C248" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D248" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="E248" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F248" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
       <c r="G248" t="s">
         <v>156</v>
@@ -35711,13 +35729,13 @@
         <v>10</v>
       </c>
       <c r="C250" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D250" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="E250" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F250" t="s">
         <v>372</v>
@@ -35734,13 +35752,13 @@
         <v>10</v>
       </c>
       <c r="C251" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D251" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="E251" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F251" t="s">
         <v>174</v>
@@ -35757,13 +35775,13 @@
         <v>8</v>
       </c>
       <c r="C252" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D252" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="E252" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F252" t="s">
         <v>233</v>
@@ -35803,13 +35821,13 @@
         <v>8</v>
       </c>
       <c r="C254" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="D254" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="E254" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F254" t="s">
         <v>332</v>
@@ -35849,13 +35867,13 @@
         <v>10</v>
       </c>
       <c r="C256" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D256" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="E256" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F256" t="s">
         <v>372</v>
@@ -35941,16 +35959,16 @@
         <v>8</v>
       </c>
       <c r="C260" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D260" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="E260" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F260" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
       <c r="G260" t="s">
         <v>156</v>
@@ -35964,13 +35982,13 @@
         <v>8</v>
       </c>
       <c r="C261" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="D261" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="E261" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F261" t="s">
         <v>270</v>
@@ -35987,16 +36005,16 @@
         <v>9</v>
       </c>
       <c r="C262" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D262" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="E262" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F262" t="s">
-        <v>1822</v>
+        <v>1827</v>
       </c>
       <c r="G262" t="s">
         <v>156</v>
@@ -36033,13 +36051,13 @@
         <v>10</v>
       </c>
       <c r="C264" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="D264" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="E264" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F264" t="s">
         <v>174</v>
@@ -36056,13 +36074,13 @@
         <v>8</v>
       </c>
       <c r="C265" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="D265" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="E265" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F265" t="s">
         <v>332</v>
@@ -36125,13 +36143,13 @@
         <v>9</v>
       </c>
       <c r="C268" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D268" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="E268" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F268" t="s">
         <v>354</v>
@@ -36171,13 +36189,13 @@
         <v>8</v>
       </c>
       <c r="C270" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="D270" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="E270" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F270" t="s">
         <v>332</v>
@@ -36240,13 +36258,13 @@
         <v>10</v>
       </c>
       <c r="C273" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D273" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="E273" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F273" t="s">
         <v>372</v>
@@ -36286,13 +36304,13 @@
         <v>8</v>
       </c>
       <c r="C275" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D275" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="E275" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F275" t="s">
         <v>192</v>
@@ -36309,13 +36327,13 @@
         <v>10</v>
       </c>
       <c r="C276" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D276" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="E276" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F276" t="s">
         <v>372</v>
@@ -36355,16 +36373,16 @@
         <v>8</v>
       </c>
       <c r="C278" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D278" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="E278" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F278" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
       <c r="G278" t="s">
         <v>156</v>
@@ -36378,13 +36396,13 @@
         <v>8</v>
       </c>
       <c r="C279" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D279" t="s">
         <v>432</v>
       </c>
       <c r="E279" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F279" t="s">
         <v>192</v>
@@ -36401,13 +36419,13 @@
         <v>7</v>
       </c>
       <c r="C280" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="D280" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="E280" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F280" t="s">
         <v>279</v>
@@ -36424,13 +36442,13 @@
         <v>8</v>
       </c>
       <c r="C281" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D281" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="E281" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F281" t="s">
         <v>192</v>
@@ -36447,16 +36465,16 @@
         <v>8</v>
       </c>
       <c r="C282" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D282" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="E282" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F282" t="s">
-        <v>1819</v>
+        <v>1824</v>
       </c>
       <c r="G282" t="s">
         <v>156</v>
@@ -36470,13 +36488,13 @@
         <v>8</v>
       </c>
       <c r="C283" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D283" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="E283" t="s">
-        <v>1784</v>
+        <v>1793</v>
       </c>
       <c r="F283" t="s">
         <v>233</v>
@@ -36493,16 +36511,16 @@
         <v>8</v>
       </c>
       <c r="C284" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="D284" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="E284" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="F284" t="s">
-        <v>1823</v>
+        <v>1828</v>
       </c>
       <c r="G284" t="s">
         <v>156</v>
@@ -36516,13 +36534,13 @@
         <v>8</v>
       </c>
       <c r="C285" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D285" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="E285" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F285" t="s">
         <v>194</v>
@@ -36539,13 +36557,13 @@
         <v>8</v>
       </c>
       <c r="C286" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D286" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="E286" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F286" t="s">
         <v>194</v>
@@ -36562,13 +36580,13 @@
         <v>8</v>
       </c>
       <c r="C287" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D287" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="E287" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F287" t="s">
         <v>238</v>
@@ -36585,13 +36603,13 @@
         <v>8</v>
       </c>
       <c r="C288" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D288" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="E288" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F288" t="s">
         <v>194</v>
@@ -36608,13 +36626,13 @@
         <v>8</v>
       </c>
       <c r="C289" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D289" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="E289" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F289" t="s">
         <v>194</v>
@@ -36631,13 +36649,13 @@
         <v>8</v>
       </c>
       <c r="C290" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D290" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="E290" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F290" t="s">
         <v>233</v>
@@ -36654,13 +36672,13 @@
         <v>8</v>
       </c>
       <c r="C291" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D291" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="E291" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F291" t="s">
         <v>233</v>
@@ -36677,13 +36695,13 @@
         <v>8</v>
       </c>
       <c r="C292" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D292" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="E292" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F292" t="s">
         <v>194</v>
@@ -36700,13 +36718,13 @@
         <v>8</v>
       </c>
       <c r="C293" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D293" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="E293" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F293" t="s">
         <v>194</v>
@@ -36723,13 +36741,13 @@
         <v>8</v>
       </c>
       <c r="C294" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="D294" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="E294" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F294" t="s">
         <v>304</v>
@@ -36746,13 +36764,13 @@
         <v>8</v>
       </c>
       <c r="C295" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D295" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="E295" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F295" t="s">
         <v>227</v>
@@ -36769,13 +36787,13 @@
         <v>7</v>
       </c>
       <c r="C296" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D296" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="E296" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F296" t="s">
         <v>262</v>
@@ -36792,13 +36810,13 @@
         <v>7</v>
       </c>
       <c r="C297" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D297" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="E297" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F297" t="s">
         <v>260</v>
@@ -36815,13 +36833,13 @@
         <v>7</v>
       </c>
       <c r="C298" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D298" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="E298" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F298" t="s">
         <v>260</v>
@@ -36838,13 +36856,13 @@
         <v>7</v>
       </c>
       <c r="C299" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D299" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="E299" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F299" t="s">
         <v>260</v>
@@ -36861,13 +36879,13 @@
         <v>7</v>
       </c>
       <c r="C300" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="D300" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="E300" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F300" t="s">
         <v>260</v>
@@ -36884,13 +36902,13 @@
         <v>7</v>
       </c>
       <c r="C301" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D301" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="E301" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F301" t="s">
         <v>262</v>
@@ -36907,13 +36925,13 @@
         <v>7</v>
       </c>
       <c r="C302" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D302" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="E302" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F302" t="s">
         <v>260</v>
@@ -36930,13 +36948,13 @@
         <v>7</v>
       </c>
       <c r="C303" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D303" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="E303" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F303" t="s">
         <v>260</v>
@@ -36953,13 +36971,13 @@
         <v>7</v>
       </c>
       <c r="C304" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D304" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="E304" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F304" t="s">
         <v>196</v>
@@ -36976,13 +36994,13 @@
         <v>7</v>
       </c>
       <c r="C305" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D305" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="E305" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F305" t="s">
         <v>262</v>
@@ -36999,13 +37017,13 @@
         <v>7</v>
       </c>
       <c r="C306" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D306" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="E306" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F306" t="s">
         <v>262</v>
@@ -37022,13 +37040,13 @@
         <v>7</v>
       </c>
       <c r="C307" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D307" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="E307" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F307" t="s">
         <v>262</v>
@@ -37045,13 +37063,13 @@
         <v>7</v>
       </c>
       <c r="C308" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D308" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="E308" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F308" t="s">
         <v>262</v>
@@ -37068,13 +37086,13 @@
         <v>7</v>
       </c>
       <c r="C309" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D309" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="E309" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F309" t="s">
         <v>262</v>
@@ -37091,13 +37109,13 @@
         <v>7</v>
       </c>
       <c r="C310" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="D310" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="E310" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F310" t="s">
         <v>291</v>
@@ -37114,13 +37132,13 @@
         <v>7</v>
       </c>
       <c r="C311" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D311" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="E311" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F311" t="s">
         <v>262</v>
@@ -37137,13 +37155,13 @@
         <v>7</v>
       </c>
       <c r="C312" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D312" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="E312" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F312" t="s">
         <v>291</v>
@@ -37160,13 +37178,13 @@
         <v>7</v>
       </c>
       <c r="C313" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="D313" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="E313" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F313" t="s">
         <v>260</v>
@@ -37183,13 +37201,13 @@
         <v>7</v>
       </c>
       <c r="C314" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="D314" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="E314" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F314" t="s">
         <v>260</v>
@@ -37206,13 +37224,13 @@
         <v>7</v>
       </c>
       <c r="C315" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D315" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="E315" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F315" t="s">
         <v>291</v>
@@ -37229,13 +37247,13 @@
         <v>7</v>
       </c>
       <c r="C316" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D316" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="E316" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F316" t="s">
         <v>262</v>
@@ -37252,13 +37270,13 @@
         <v>7</v>
       </c>
       <c r="C317" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D317" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="E317" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F317" t="s">
         <v>260</v>
@@ -37275,13 +37293,13 @@
         <v>8</v>
       </c>
       <c r="C318" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D318" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="E318" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F318" t="s">
         <v>163</v>
@@ -37298,13 +37316,13 @@
         <v>7</v>
       </c>
       <c r="C319" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D319" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="E319" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F319" t="s">
         <v>190</v>
@@ -37321,13 +37339,13 @@
         <v>7</v>
       </c>
       <c r="C320" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D320" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="E320" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F320" t="s">
         <v>190</v>
@@ -37344,13 +37362,13 @@
         <v>8</v>
       </c>
       <c r="C321" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D321" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="E321" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F321" t="s">
         <v>135</v>
@@ -37367,13 +37385,13 @@
         <v>7</v>
       </c>
       <c r="C322" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D322" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="E322" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F322" t="s">
         <v>190</v>
@@ -37482,16 +37500,16 @@
         <v>10</v>
       </c>
       <c r="C327" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D327" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="E327" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F327" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
       <c r="G327" t="s">
         <v>156</v>
@@ -37597,16 +37615,16 @@
         <v>10</v>
       </c>
       <c r="C332" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="D332" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="E332" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F332" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
       <c r="G332" t="s">
         <v>156</v>
@@ -37643,16 +37661,16 @@
         <v>10</v>
       </c>
       <c r="C334" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D334" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="E334" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F334" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
       <c r="G334" t="s">
         <v>156</v>
@@ -37666,16 +37684,16 @@
         <v>10</v>
       </c>
       <c r="C335" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D335" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="E335" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F335" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
       <c r="G335" t="s">
         <v>156</v>
@@ -37689,16 +37707,16 @@
         <v>10</v>
       </c>
       <c r="C336" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="D336" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="E336" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F336" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
       <c r="G336" t="s">
         <v>156</v>
@@ -37758,13 +37776,13 @@
         <v>7</v>
       </c>
       <c r="C339" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="D339" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="E339" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F339" t="s">
         <v>291</v>
@@ -37781,16 +37799,16 @@
         <v>10</v>
       </c>
       <c r="C340" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D340" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="E340" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F340" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
       <c r="G340" t="s">
         <v>156</v>
@@ -37850,16 +37868,16 @@
         <v>10</v>
       </c>
       <c r="C343" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D343" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="E343" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F343" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
       <c r="G343" t="s">
         <v>156</v>
@@ -37919,16 +37937,16 @@
         <v>10</v>
       </c>
       <c r="C346" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="D346" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="E346" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F346" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
       <c r="G346" t="s">
         <v>156</v>
@@ -37988,16 +38006,16 @@
         <v>8</v>
       </c>
       <c r="C349" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D349" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="E349" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F349" t="s">
-        <v>1825</v>
+        <v>1830</v>
       </c>
       <c r="G349" t="s">
         <v>156</v>
@@ -38011,13 +38029,13 @@
         <v>8</v>
       </c>
       <c r="C350" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D350" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="E350" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F350" t="s">
         <v>135</v>
@@ -38034,16 +38052,16 @@
         <v>8</v>
       </c>
       <c r="C351" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D351" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="E351" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F351" t="s">
-        <v>1826</v>
+        <v>1831</v>
       </c>
       <c r="G351" t="s">
         <v>156</v>
@@ -38057,16 +38075,16 @@
         <v>10</v>
       </c>
       <c r="C352" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="D352" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="E352" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F352" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
       <c r="G352" t="s">
         <v>156</v>
@@ -38080,13 +38098,13 @@
         <v>7</v>
       </c>
       <c r="C353" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D353" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="E353" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F353" t="s">
         <v>262</v>
@@ -38103,13 +38121,13 @@
         <v>8</v>
       </c>
       <c r="C354" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="D354" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="E354" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F354" t="s">
         <v>167</v>
@@ -38126,13 +38144,13 @@
         <v>8</v>
       </c>
       <c r="C355" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D355" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="E355" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F355" t="s">
         <v>135</v>
@@ -38149,13 +38167,13 @@
         <v>7</v>
       </c>
       <c r="C356" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D356" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="E356" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F356" t="s">
         <v>260</v>
@@ -38172,13 +38190,13 @@
         <v>8</v>
       </c>
       <c r="C357" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="D357" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="E357" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F357" t="s">
         <v>317</v>
@@ -38195,16 +38213,16 @@
         <v>7</v>
       </c>
       <c r="C358" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="D358" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="E358" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F358" t="s">
-        <v>1827</v>
+        <v>1832</v>
       </c>
       <c r="G358" t="s">
         <v>156</v>
@@ -38218,16 +38236,16 @@
         <v>10</v>
       </c>
       <c r="C359" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D359" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="E359" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F359" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
       <c r="G359" t="s">
         <v>156</v>
@@ -38241,13 +38259,13 @@
         <v>7</v>
       </c>
       <c r="C360" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D360" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="E360" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F360" t="s">
         <v>262</v>
@@ -38264,16 +38282,16 @@
         <v>7</v>
       </c>
       <c r="C361" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D361" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="E361" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F361" t="s">
-        <v>1828</v>
+        <v>1833</v>
       </c>
       <c r="G361" t="s">
         <v>156</v>
@@ -38287,16 +38305,16 @@
         <v>10</v>
       </c>
       <c r="C362" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D362" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="E362" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F362" t="s">
-        <v>1824</v>
+        <v>1829</v>
       </c>
       <c r="G362" t="s">
         <v>156</v>
@@ -38310,13 +38328,13 @@
         <v>8</v>
       </c>
       <c r="C363" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D363" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="E363" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F363" t="s">
         <v>135</v>
@@ -38333,13 +38351,13 @@
         <v>7</v>
       </c>
       <c r="C364" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="D364" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="E364" t="s">
-        <v>1787</v>
+        <v>1796</v>
       </c>
       <c r="F364" t="s">
         <v>163</v>
@@ -38356,13 +38374,13 @@
         <v>7</v>
       </c>
       <c r="C365" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="D365" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="E365" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F365" t="s">
         <v>260</v>
@@ -38379,16 +38397,16 @@
         <v>8</v>
       </c>
       <c r="C366" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D366" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="E366" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F366" t="s">
-        <v>1829</v>
+        <v>1834</v>
       </c>
       <c r="G366" t="s">
         <v>156</v>
@@ -38402,13 +38420,13 @@
         <v>8</v>
       </c>
       <c r="C367" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D367" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="E367" t="s">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="F367" t="s">
         <v>233</v>
@@ -38425,13 +38443,13 @@
         <v>8</v>
       </c>
       <c r="C368" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="D368" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="E368" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F368" t="s">
         <v>152</v>
@@ -38448,16 +38466,16 @@
         <v>10</v>
       </c>
       <c r="C369" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D369" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="E369" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F369" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G369" t="s">
         <v>156</v>
@@ -38471,16 +38489,16 @@
         <v>10</v>
       </c>
       <c r="C370" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D370" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="E370" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F370" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G370" t="s">
         <v>156</v>
@@ -38494,16 +38512,16 @@
         <v>10</v>
       </c>
       <c r="C371" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D371" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="E371" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F371" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G371" t="s">
         <v>156</v>
@@ -38517,16 +38535,16 @@
         <v>10</v>
       </c>
       <c r="C372" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D372" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="E372" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F372" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G372" t="s">
         <v>156</v>
@@ -38540,16 +38558,16 @@
         <v>10</v>
       </c>
       <c r="C373" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D373" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="E373" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F373" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G373" t="s">
         <v>156</v>
@@ -38563,16 +38581,16 @@
         <v>10</v>
       </c>
       <c r="C374" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D374" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="E374" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F374" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G374" t="s">
         <v>156</v>
@@ -38586,16 +38604,16 @@
         <v>10</v>
       </c>
       <c r="C375" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="D375" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="E375" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F375" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G375" t="s">
         <v>156</v>
@@ -38609,16 +38627,16 @@
         <v>10</v>
       </c>
       <c r="C376" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D376" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="E376" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F376" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="G376" t="s">
         <v>156</v>
@@ -38655,16 +38673,16 @@
         <v>9</v>
       </c>
       <c r="C378" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D378" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="E378" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F378" t="s">
-        <v>1823</v>
+        <v>1828</v>
       </c>
       <c r="G378" t="s">
         <v>156</v>
@@ -38678,16 +38696,16 @@
         <v>10</v>
       </c>
       <c r="C379" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D379" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="E379" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F379" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G379" t="s">
         <v>156</v>
@@ -38701,16 +38719,16 @@
         <v>10</v>
       </c>
       <c r="C380" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D380" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="E380" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F380" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G380" t="s">
         <v>156</v>
@@ -38724,16 +38742,16 @@
         <v>10</v>
       </c>
       <c r="C381" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D381" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="E381" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F381" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G381" t="s">
         <v>156</v>
@@ -38747,16 +38765,16 @@
         <v>10</v>
       </c>
       <c r="C382" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D382" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="E382" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F382" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G382" t="s">
         <v>156</v>
@@ -38770,16 +38788,16 @@
         <v>10</v>
       </c>
       <c r="C383" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D383" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="E383" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F383" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="G383" t="s">
         <v>156</v>
@@ -38793,16 +38811,16 @@
         <v>10</v>
       </c>
       <c r="C384" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D384" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="E384" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F384" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G384" t="s">
         <v>156</v>
@@ -38816,16 +38834,16 @@
         <v>9</v>
       </c>
       <c r="C385" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D385" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="E385" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F385" t="s">
-        <v>1823</v>
+        <v>1828</v>
       </c>
       <c r="G385" t="s">
         <v>156</v>
@@ -38839,16 +38857,16 @@
         <v>10</v>
       </c>
       <c r="C386" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D386" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="E386" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F386" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G386" t="s">
         <v>156</v>
@@ -38862,16 +38880,16 @@
         <v>10</v>
       </c>
       <c r="C387" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D387" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="E387" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F387" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G387" t="s">
         <v>156</v>
@@ -38885,16 +38903,16 @@
         <v>10</v>
       </c>
       <c r="C388" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D388" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="E388" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F388" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G388" t="s">
         <v>156</v>
@@ -38908,16 +38926,16 @@
         <v>10</v>
       </c>
       <c r="C389" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D389" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="E389" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F389" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G389" t="s">
         <v>156</v>
@@ -38931,16 +38949,16 @@
         <v>9</v>
       </c>
       <c r="C390" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D390" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="E390" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F390" t="s">
-        <v>1823</v>
+        <v>1828</v>
       </c>
       <c r="G390" t="s">
         <v>156</v>
@@ -38954,16 +38972,16 @@
         <v>9</v>
       </c>
       <c r="C391" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D391" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="E391" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F391" t="s">
-        <v>1823</v>
+        <v>1828</v>
       </c>
       <c r="G391" t="s">
         <v>156</v>
@@ -38977,16 +38995,16 @@
         <v>10</v>
       </c>
       <c r="C392" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D392" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="E392" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F392" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G392" t="s">
         <v>156</v>
@@ -39023,16 +39041,16 @@
         <v>10</v>
       </c>
       <c r="C394" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D394" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="E394" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F394" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G394" t="s">
         <v>156</v>
@@ -39046,16 +39064,16 @@
         <v>10</v>
       </c>
       <c r="C395" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D395" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="E395" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F395" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G395" t="s">
         <v>156</v>
@@ -39069,16 +39087,16 @@
         <v>10</v>
       </c>
       <c r="C396" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D396" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="E396" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F396" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G396" t="s">
         <v>156</v>
@@ -39092,16 +39110,16 @@
         <v>10</v>
       </c>
       <c r="C397" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D397" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="E397" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F397" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G397" t="s">
         <v>156</v>
@@ -39115,16 +39133,16 @@
         <v>10</v>
       </c>
       <c r="C398" t="s">
-        <v>1459</v>
+        <v>1469</v>
       </c>
       <c r="D398" t="s">
-        <v>1677</v>
+        <v>1683</v>
       </c>
       <c r="E398" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F398" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G398" t="s">
         <v>156</v>
@@ -39132,22 +39150,22 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>1424</v>
+        <v>1434</v>
       </c>
       <c r="B399" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C399" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="D399" t="s">
-        <v>1678</v>
+        <v>1684</v>
       </c>
       <c r="E399" t="s">
-        <v>1789</v>
+        <v>1797</v>
       </c>
       <c r="F399" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="G399" t="s">
         <v>156</v>
@@ -39155,22 +39173,22 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>1424</v>
+        <v>1434</v>
       </c>
       <c r="B400" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C400" t="s">
-        <v>1464</v>
+        <v>1450</v>
       </c>
       <c r="D400" t="s">
-        <v>1679</v>
+        <v>1685</v>
       </c>
       <c r="E400" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F400" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="G400" t="s">
         <v>156</v>
@@ -39178,22 +39196,22 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>1424</v>
+        <v>1434</v>
       </c>
       <c r="B401" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C401" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="D401" t="s">
-        <v>1680</v>
+        <v>1686</v>
       </c>
       <c r="E401" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F401" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="G401" t="s">
         <v>156</v>
@@ -39201,22 +39219,22 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>1434</v>
+        <v>1424</v>
       </c>
       <c r="B402" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C402" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="D402" t="s">
-        <v>1681</v>
+        <v>1687</v>
       </c>
       <c r="E402" t="s">
-        <v>1788</v>
+        <v>1798</v>
       </c>
       <c r="F402" t="s">
-        <v>1823</v>
+        <v>1835</v>
       </c>
       <c r="G402" t="s">
         <v>156</v>
@@ -39224,22 +39242,22 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>1434</v>
+        <v>1424</v>
       </c>
       <c r="B403" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C403" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D403" t="s">
-        <v>1682</v>
+        <v>1688</v>
       </c>
       <c r="E403" t="s">
-        <v>1788</v>
+        <v>1798</v>
       </c>
       <c r="F403" t="s">
-        <v>1823</v>
+        <v>1835</v>
       </c>
       <c r="G403" t="s">
         <v>156</v>
@@ -39253,16 +39271,16 @@
         <v>10</v>
       </c>
       <c r="C404" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="D404" t="s">
-        <v>1683</v>
+        <v>1689</v>
       </c>
       <c r="E404" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F404" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G404" t="s">
         <v>156</v>
@@ -39270,22 +39288,22 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>156</v>
+        <v>1424</v>
       </c>
       <c r="B405" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="C405" t="s">
-        <v>156</v>
+        <v>1458</v>
       </c>
       <c r="D405" t="s">
-        <v>156</v>
+        <v>1690</v>
       </c>
       <c r="E405" t="s">
-        <v>156</v>
+        <v>1798</v>
       </c>
       <c r="F405" t="s">
-        <v>156</v>
+        <v>1835</v>
       </c>
       <c r="G405" t="s">
         <v>156</v>
@@ -39293,22 +39311,22 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>1424</v>
+        <v>156</v>
       </c>
       <c r="B406" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="C406" t="s">
-        <v>1460</v>
+        <v>156</v>
       </c>
       <c r="D406" t="s">
-        <v>1684</v>
+        <v>156</v>
       </c>
       <c r="E406" t="s">
-        <v>1789</v>
+        <v>156</v>
       </c>
       <c r="F406" t="s">
-        <v>1830</v>
+        <v>156</v>
       </c>
       <c r="G406" t="s">
         <v>156</v>
@@ -39316,22 +39334,22 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>1424</v>
+        <v>1434</v>
       </c>
       <c r="B407" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C407" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="D407" t="s">
-        <v>1685</v>
+        <v>1691</v>
       </c>
       <c r="E407" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F407" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="G407" t="s">
         <v>156</v>
@@ -39345,16 +39363,16 @@
         <v>10</v>
       </c>
       <c r="C408" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="D408" t="s">
-        <v>1686</v>
+        <v>1692</v>
       </c>
       <c r="E408" t="s">
-        <v>1788</v>
+        <v>1798</v>
       </c>
       <c r="F408" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G408" t="s">
         <v>156</v>
@@ -39362,22 +39380,22 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>1424</v>
+        <v>1434</v>
       </c>
       <c r="B409" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C409" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="D409" t="s">
-        <v>1571</v>
+        <v>1693</v>
       </c>
       <c r="E409" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F409" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="G409" t="s">
         <v>156</v>
@@ -39391,16 +39409,16 @@
         <v>10</v>
       </c>
       <c r="C410" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D410" t="s">
-        <v>1687</v>
+        <v>1694</v>
       </c>
       <c r="E410" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F410" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G410" t="s">
         <v>156</v>
@@ -39414,16 +39432,16 @@
         <v>10</v>
       </c>
       <c r="C411" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D411" t="s">
-        <v>1688</v>
+        <v>1695</v>
       </c>
       <c r="E411" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F411" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G411" t="s">
         <v>156</v>
@@ -39437,16 +39455,16 @@
         <v>10</v>
       </c>
       <c r="C412" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D412" t="s">
-        <v>1689</v>
+        <v>1696</v>
       </c>
       <c r="E412" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F412" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G412" t="s">
         <v>156</v>
@@ -39460,16 +39478,16 @@
         <v>9</v>
       </c>
       <c r="C413" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D413" t="s">
-        <v>1690</v>
+        <v>1697</v>
       </c>
       <c r="E413" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F413" t="s">
-        <v>1823</v>
+        <v>1828</v>
       </c>
       <c r="G413" t="s">
         <v>156</v>
@@ -39483,16 +39501,16 @@
         <v>9</v>
       </c>
       <c r="C414" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D414" t="s">
-        <v>1691</v>
+        <v>1698</v>
       </c>
       <c r="E414" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F414" t="s">
-        <v>1823</v>
+        <v>1828</v>
       </c>
       <c r="G414" t="s">
         <v>156</v>
@@ -39506,16 +39524,16 @@
         <v>10</v>
       </c>
       <c r="C415" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D415" t="s">
-        <v>1692</v>
+        <v>1699</v>
       </c>
       <c r="E415" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F415" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G415" t="s">
         <v>156</v>
@@ -39529,16 +39547,16 @@
         <v>10</v>
       </c>
       <c r="C416" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D416" t="s">
-        <v>1693</v>
+        <v>1700</v>
       </c>
       <c r="E416" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F416" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G416" t="s">
         <v>156</v>
@@ -39552,16 +39570,16 @@
         <v>10</v>
       </c>
       <c r="C417" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D417" t="s">
-        <v>1694</v>
+        <v>1701</v>
       </c>
       <c r="E417" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F417" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G417" t="s">
         <v>156</v>
@@ -39598,16 +39616,16 @@
         <v>10</v>
       </c>
       <c r="C419" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D419" t="s">
-        <v>1695</v>
+        <v>1702</v>
       </c>
       <c r="E419" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F419" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G419" t="s">
         <v>156</v>
@@ -39621,16 +39639,16 @@
         <v>10</v>
       </c>
       <c r="C420" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D420" t="s">
-        <v>1696</v>
+        <v>1703</v>
       </c>
       <c r="E420" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F420" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G420" t="s">
         <v>156</v>
@@ -39667,16 +39685,16 @@
         <v>10</v>
       </c>
       <c r="C422" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D422" t="s">
-        <v>1697</v>
+        <v>1704</v>
       </c>
       <c r="E422" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F422" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G422" t="s">
         <v>156</v>
@@ -39736,16 +39754,16 @@
         <v>9</v>
       </c>
       <c r="C425" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D425" t="s">
-        <v>1698</v>
+        <v>1705</v>
       </c>
       <c r="E425" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F425" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
       <c r="G425" t="s">
         <v>156</v>
@@ -39759,16 +39777,16 @@
         <v>10</v>
       </c>
       <c r="C426" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D426" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="E426" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F426" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G426" t="s">
         <v>156</v>
@@ -39782,16 +39800,16 @@
         <v>9</v>
       </c>
       <c r="C427" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D427" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="E427" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F427" t="s">
-        <v>1823</v>
+        <v>1828</v>
       </c>
       <c r="G427" t="s">
         <v>156</v>
@@ -39805,16 +39823,16 @@
         <v>10</v>
       </c>
       <c r="C428" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D428" t="s">
-        <v>1701</v>
+        <v>1708</v>
       </c>
       <c r="E428" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F428" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G428" t="s">
         <v>156</v>
@@ -39828,16 +39846,16 @@
         <v>10</v>
       </c>
       <c r="C429" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D429" t="s">
-        <v>1702</v>
+        <v>1709</v>
       </c>
       <c r="E429" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F429" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G429" t="s">
         <v>156</v>
@@ -39851,16 +39869,16 @@
         <v>9</v>
       </c>
       <c r="C430" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="D430" t="s">
-        <v>1703</v>
+        <v>1710</v>
       </c>
       <c r="E430" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F430" t="s">
-        <v>1823</v>
+        <v>1828</v>
       </c>
       <c r="G430" t="s">
         <v>156</v>
@@ -39874,16 +39892,16 @@
         <v>9</v>
       </c>
       <c r="C431" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D431" t="s">
-        <v>1704</v>
+        <v>1711</v>
       </c>
       <c r="E431" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F431" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
       <c r="G431" t="s">
         <v>156</v>
@@ -39897,16 +39915,16 @@
         <v>9</v>
       </c>
       <c r="C432" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D432" t="s">
-        <v>1705</v>
+        <v>1712</v>
       </c>
       <c r="E432" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F432" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
       <c r="G432" t="s">
         <v>156</v>
@@ -39920,13 +39938,13 @@
         <v>7</v>
       </c>
       <c r="C433" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="D433" t="s">
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F433" t="s">
         <v>216</v>
@@ -39943,16 +39961,16 @@
         <v>9</v>
       </c>
       <c r="C434" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D434" t="s">
-        <v>1706</v>
+        <v>1713</v>
       </c>
       <c r="E434" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F434" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
       <c r="G434" t="s">
         <v>156</v>
@@ -39966,16 +39984,16 @@
         <v>10</v>
       </c>
       <c r="C435" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D435" t="s">
-        <v>1707</v>
+        <v>1714</v>
       </c>
       <c r="E435" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F435" t="s">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="G435" t="s">
         <v>156</v>
@@ -39989,16 +40007,16 @@
         <v>10</v>
       </c>
       <c r="C436" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D436" t="s">
-        <v>1708</v>
+        <v>1715</v>
       </c>
       <c r="E436" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F436" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G436" t="s">
         <v>156</v>
@@ -40012,16 +40030,16 @@
         <v>10</v>
       </c>
       <c r="C437" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D437" t="s">
-        <v>1709</v>
+        <v>1716</v>
       </c>
       <c r="E437" t="s">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="F437" t="s">
-        <v>1830</v>
+        <v>1835</v>
       </c>
       <c r="G437" t="s">
         <v>156</v>
@@ -40035,16 +40053,16 @@
         <v>9</v>
       </c>
       <c r="C438" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D438" t="s">
-        <v>1710</v>
+        <v>1717</v>
       </c>
       <c r="E438" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="F438" t="s">
-        <v>1817</v>
+        <v>1822</v>
       </c>
       <c r="G438" t="s">
         <v>156</v>
@@ -40058,13 +40076,13 @@
         <v>9</v>
       </c>
       <c r="C439" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D439" t="s">
-        <v>1711</v>
+        <v>1718</v>
       </c>
       <c r="E439" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F439" t="s">
         <v>270</v>
@@ -40081,13 +40099,13 @@
         <v>9</v>
       </c>
       <c r="C440" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D440" t="s">
-        <v>1712</v>
+        <v>1719</v>
       </c>
       <c r="E440" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F440" t="s">
         <v>194</v>
@@ -40104,13 +40122,13 @@
         <v>9</v>
       </c>
       <c r="C441" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D441" t="s">
-        <v>1713</v>
+        <v>1720</v>
       </c>
       <c r="E441" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F441" t="s">
         <v>238</v>
@@ -40127,13 +40145,13 @@
         <v>9</v>
       </c>
       <c r="C442" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D442" t="s">
-        <v>1714</v>
+        <v>1721</v>
       </c>
       <c r="E442" t="s">
-        <v>1791</v>
+        <v>1800</v>
       </c>
       <c r="F442" t="s">
         <v>372</v>
@@ -40173,13 +40191,13 @@
         <v>9</v>
       </c>
       <c r="C444" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D444" t="s">
-        <v>1715</v>
+        <v>1722</v>
       </c>
       <c r="E444" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F444" t="s">
         <v>372</v>
@@ -40196,16 +40214,16 @@
         <v>10</v>
       </c>
       <c r="C445" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="D445" t="s">
-        <v>1716</v>
+        <v>1723</v>
       </c>
       <c r="E445" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F445" t="s">
-        <v>1832</v>
+        <v>1837</v>
       </c>
       <c r="G445" t="s">
         <v>156</v>
@@ -40219,16 +40237,16 @@
         <v>10</v>
       </c>
       <c r="C446" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D446" t="s">
-        <v>1717</v>
+        <v>1724</v>
       </c>
       <c r="E446" t="s">
-        <v>1791</v>
+        <v>1800</v>
       </c>
       <c r="F446" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="G446" t="s">
         <v>156</v>
@@ -40288,16 +40306,16 @@
         <v>7</v>
       </c>
       <c r="C449" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D449" t="s">
-        <v>1718</v>
+        <v>1725</v>
       </c>
       <c r="E449" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F449" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="G449" t="s">
         <v>156</v>
@@ -40311,16 +40329,16 @@
         <v>7</v>
       </c>
       <c r="C450" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D450" t="s">
-        <v>1719</v>
+        <v>1726</v>
       </c>
       <c r="E450" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F450" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="G450" t="s">
         <v>156</v>
@@ -40334,16 +40352,16 @@
         <v>10</v>
       </c>
       <c r="C451" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D451" t="s">
-        <v>1720</v>
+        <v>1727</v>
       </c>
       <c r="E451" t="s">
-        <v>1791</v>
+        <v>1800</v>
       </c>
       <c r="F451" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="G451" t="s">
         <v>156</v>
@@ -40380,16 +40398,16 @@
         <v>7</v>
       </c>
       <c r="C453" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="D453" t="s">
-        <v>1721</v>
+        <v>1728</v>
       </c>
       <c r="E453" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F453" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="G453" t="s">
         <v>156</v>
@@ -40403,16 +40421,16 @@
         <v>10</v>
       </c>
       <c r="C454" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D454" t="s">
-        <v>1722</v>
+        <v>1729</v>
       </c>
       <c r="E454" t="s">
-        <v>1791</v>
+        <v>1800</v>
       </c>
       <c r="F454" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="G454" t="s">
         <v>156</v>
@@ -40426,16 +40444,16 @@
         <v>7</v>
       </c>
       <c r="C455" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D455" t="s">
-        <v>1723</v>
+        <v>1730</v>
       </c>
       <c r="E455" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F455" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="G455" t="s">
         <v>156</v>
@@ -40449,16 +40467,16 @@
         <v>7</v>
       </c>
       <c r="C456" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D456" t="s">
-        <v>1724</v>
+        <v>1731</v>
       </c>
       <c r="E456" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F456" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="G456" t="s">
         <v>156</v>
@@ -40472,16 +40490,16 @@
         <v>7</v>
       </c>
       <c r="C457" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="D457" t="s">
-        <v>1725</v>
+        <v>1732</v>
       </c>
       <c r="E457" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F457" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="G457" t="s">
         <v>156</v>
@@ -40495,16 +40513,16 @@
         <v>7</v>
       </c>
       <c r="C458" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D458" t="s">
-        <v>1726</v>
+        <v>1733</v>
       </c>
       <c r="E458" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F458" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="G458" t="s">
         <v>156</v>
@@ -40518,13 +40536,13 @@
         <v>9</v>
       </c>
       <c r="C459" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="D459" t="s">
-        <v>1727</v>
+        <v>1734</v>
       </c>
       <c r="E459" t="s">
-        <v>1791</v>
+        <v>1800</v>
       </c>
       <c r="F459" t="s">
         <v>317</v>
@@ -40541,16 +40559,16 @@
         <v>7</v>
       </c>
       <c r="C460" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D460" t="s">
-        <v>1728</v>
+        <v>1735</v>
       </c>
       <c r="E460" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F460" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="G460" t="s">
         <v>156</v>
@@ -40564,16 +40582,16 @@
         <v>7</v>
       </c>
       <c r="C461" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="D461" t="s">
-        <v>1729</v>
+        <v>1736</v>
       </c>
       <c r="E461" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F461" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="G461" t="s">
         <v>156</v>
@@ -40610,16 +40628,16 @@
         <v>7</v>
       </c>
       <c r="C463" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D463" t="s">
-        <v>1730</v>
+        <v>1737</v>
       </c>
       <c r="E463" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F463" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="G463" t="s">
         <v>156</v>
@@ -40633,13 +40651,13 @@
         <v>9</v>
       </c>
       <c r="C464" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D464" t="s">
-        <v>1731</v>
+        <v>1738</v>
       </c>
       <c r="E464" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F464" t="s">
         <v>317</v>
@@ -40656,13 +40674,13 @@
         <v>9</v>
       </c>
       <c r="C465" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D465" t="s">
-        <v>1732</v>
+        <v>1739</v>
       </c>
       <c r="E465" t="s">
-        <v>1791</v>
+        <v>1800</v>
       </c>
       <c r="F465" t="s">
         <v>317</v>
@@ -40679,16 +40697,16 @@
         <v>7</v>
       </c>
       <c r="C466" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D466" t="s">
-        <v>1733</v>
+        <v>1740</v>
       </c>
       <c r="E466" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F466" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="G466" t="s">
         <v>156</v>
@@ -40725,16 +40743,16 @@
         <v>7</v>
       </c>
       <c r="C468" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D468" t="s">
-        <v>1734</v>
+        <v>1741</v>
       </c>
       <c r="E468" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F468" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="G468" t="s">
         <v>156</v>
@@ -40748,16 +40766,16 @@
         <v>10</v>
       </c>
       <c r="C469" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D469" t="s">
-        <v>1735</v>
+        <v>1742</v>
       </c>
       <c r="E469" t="s">
-        <v>1791</v>
+        <v>1800</v>
       </c>
       <c r="F469" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="G469" t="s">
         <v>156</v>
@@ -40794,13 +40812,13 @@
         <v>9</v>
       </c>
       <c r="C471" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D471" t="s">
-        <v>1736</v>
+        <v>1743</v>
       </c>
       <c r="E471" t="s">
-        <v>1791</v>
+        <v>1800</v>
       </c>
       <c r="F471" t="s">
         <v>372</v>
@@ -40817,13 +40835,13 @@
         <v>9</v>
       </c>
       <c r="C472" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D472" t="s">
-        <v>1737</v>
+        <v>1744</v>
       </c>
       <c r="E472" t="s">
-        <v>1791</v>
+        <v>1800</v>
       </c>
       <c r="F472" t="s">
         <v>372</v>
@@ -40909,16 +40927,16 @@
         <v>7</v>
       </c>
       <c r="C476" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D476" t="s">
-        <v>1738</v>
+        <v>1745</v>
       </c>
       <c r="E476" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F476" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="G476" t="s">
         <v>156</v>
@@ -40932,13 +40950,13 @@
         <v>9</v>
       </c>
       <c r="C477" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D477" t="s">
-        <v>1739</v>
+        <v>1746</v>
       </c>
       <c r="E477" t="s">
-        <v>1791</v>
+        <v>1800</v>
       </c>
       <c r="F477" t="s">
         <v>317</v>
@@ -40978,16 +40996,16 @@
         <v>7</v>
       </c>
       <c r="C479" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="D479" t="s">
-        <v>1740</v>
+        <v>1747</v>
       </c>
       <c r="E479" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F479" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="G479" t="s">
         <v>156</v>
@@ -41001,16 +41019,16 @@
         <v>7</v>
       </c>
       <c r="C480" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="D480" t="s">
-        <v>1741</v>
+        <v>1748</v>
       </c>
       <c r="E480" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F480" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="G480" t="s">
         <v>156</v>
@@ -41047,16 +41065,16 @@
         <v>10</v>
       </c>
       <c r="C482" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D482" t="s">
-        <v>1742</v>
+        <v>1749</v>
       </c>
       <c r="E482" t="s">
-        <v>1791</v>
+        <v>1800</v>
       </c>
       <c r="F482" t="s">
-        <v>1833</v>
+        <v>1838</v>
       </c>
       <c r="G482" t="s">
         <v>156</v>
@@ -41070,16 +41088,16 @@
         <v>7</v>
       </c>
       <c r="C483" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D483" t="s">
-        <v>1743</v>
+        <v>1750</v>
       </c>
       <c r="E483" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F483" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="G483" t="s">
         <v>156</v>
@@ -41116,16 +41134,16 @@
         <v>7</v>
       </c>
       <c r="C485" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D485" t="s">
-        <v>1744</v>
+        <v>1751</v>
       </c>
       <c r="E485" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F485" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="G485" t="s">
         <v>156</v>
@@ -41139,16 +41157,16 @@
         <v>7</v>
       </c>
       <c r="C486" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D486" t="s">
-        <v>1745</v>
+        <v>1752</v>
       </c>
       <c r="E486" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F486" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="G486" t="s">
         <v>156</v>
@@ -41185,13 +41203,13 @@
         <v>9</v>
       </c>
       <c r="C488" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D488" t="s">
-        <v>1746</v>
+        <v>1753</v>
       </c>
       <c r="E488" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F488" t="s">
         <v>372</v>
@@ -41231,13 +41249,13 @@
         <v>9</v>
       </c>
       <c r="C490" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D490" t="s">
-        <v>1747</v>
+        <v>1754</v>
       </c>
       <c r="E490" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F490" t="s">
         <v>210</v>
@@ -41277,13 +41295,13 @@
         <v>9</v>
       </c>
       <c r="C492" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D492" t="s">
-        <v>1748</v>
+        <v>1755</v>
       </c>
       <c r="E492" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F492" t="s">
         <v>372</v>
@@ -41300,13 +41318,13 @@
         <v>7</v>
       </c>
       <c r="C493" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D493" t="s">
-        <v>1749</v>
+        <v>1756</v>
       </c>
       <c r="E493" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F493" t="s">
         <v>210</v>
@@ -41317,22 +41335,22 @@
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
       <c r="B494" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C494" t="s">
-        <v>1458</v>
+        <v>1462</v>
       </c>
       <c r="D494" t="s">
-        <v>1742</v>
+        <v>1757</v>
       </c>
       <c r="E494" t="s">
-        <v>1791</v>
+        <v>1799</v>
       </c>
       <c r="F494" t="s">
-        <v>1833</v>
+        <v>1839</v>
       </c>
       <c r="G494" t="s">
         <v>156</v>
@@ -41340,22 +41358,22 @@
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>1412</v>
+        <v>1434</v>
       </c>
       <c r="B495" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C495" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="D495" t="s">
-        <v>1743</v>
+        <v>1758</v>
       </c>
       <c r="E495" t="s">
-        <v>1790</v>
+        <v>1800</v>
       </c>
       <c r="F495" t="s">
-        <v>1834</v>
+        <v>317</v>
       </c>
       <c r="G495" t="s">
         <v>156</v>
@@ -41363,22 +41381,22 @@
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>156</v>
+        <v>1421</v>
       </c>
       <c r="B496" t="s">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="C496" t="s">
-        <v>156</v>
+        <v>1460</v>
       </c>
       <c r="D496" t="s">
-        <v>156</v>
+        <v>1759</v>
       </c>
       <c r="E496" t="s">
-        <v>156</v>
+        <v>1799</v>
       </c>
       <c r="F496" t="s">
-        <v>156</v>
+        <v>1840</v>
       </c>
       <c r="G496" t="s">
         <v>156</v>
@@ -41386,22 +41404,22 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>1438</v>
+        <v>1412</v>
       </c>
       <c r="B497" t="s">
         <v>7</v>
       </c>
       <c r="C497" t="s">
-        <v>1453</v>
+        <v>1460</v>
       </c>
       <c r="D497" t="s">
-        <v>1744</v>
+        <v>1760</v>
       </c>
       <c r="E497" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F497" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="G497" t="s">
         <v>156</v>
@@ -41409,22 +41427,22 @@
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>1412</v>
+        <v>1424</v>
       </c>
       <c r="B498" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C498" t="s">
-        <v>1452</v>
+        <v>1462</v>
       </c>
       <c r="D498" t="s">
-        <v>1745</v>
+        <v>1761</v>
       </c>
       <c r="E498" t="s">
-        <v>1790</v>
+        <v>1800</v>
       </c>
       <c r="F498" t="s">
-        <v>1834</v>
+        <v>124</v>
       </c>
       <c r="G498" t="s">
         <v>156</v>
@@ -41432,22 +41450,22 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>156</v>
+        <v>1412</v>
       </c>
       <c r="B499" t="s">
-        <v>156</v>
+        <v>7</v>
       </c>
       <c r="C499" t="s">
-        <v>156</v>
+        <v>1449</v>
       </c>
       <c r="D499" t="s">
-        <v>156</v>
+        <v>1762</v>
       </c>
       <c r="E499" t="s">
-        <v>156</v>
+        <v>1799</v>
       </c>
       <c r="F499" t="s">
-        <v>156</v>
+        <v>1839</v>
       </c>
       <c r="G499" t="s">
         <v>156</v>
@@ -41455,22 +41473,22 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="B500" t="s">
         <v>9</v>
       </c>
       <c r="C500" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="D500" t="s">
-        <v>1746</v>
+        <v>1763</v>
       </c>
       <c r="E500" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F500" t="s">
-        <v>372</v>
+        <v>181</v>
       </c>
       <c r="G500" t="s">
         <v>156</v>
@@ -41478,22 +41496,22 @@
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>156</v>
+        <v>1412</v>
       </c>
       <c r="B501" t="s">
-        <v>156</v>
+        <v>7</v>
       </c>
       <c r="C501" t="s">
-        <v>156</v>
+        <v>1456</v>
       </c>
       <c r="D501" t="s">
-        <v>156</v>
+        <v>1764</v>
       </c>
       <c r="E501" t="s">
-        <v>156</v>
+        <v>1799</v>
       </c>
       <c r="F501" t="s">
-        <v>156</v>
+        <v>1839</v>
       </c>
       <c r="G501" t="s">
         <v>156</v>
@@ -41501,22 +41519,22 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>1436</v>
+        <v>1424</v>
       </c>
       <c r="B502" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C502" t="s">
-        <v>1452</v>
+        <v>1462</v>
       </c>
       <c r="D502" t="s">
-        <v>1747</v>
+        <v>1765</v>
       </c>
       <c r="E502" t="s">
-        <v>1790</v>
+        <v>1800</v>
       </c>
       <c r="F502" t="s">
-        <v>210</v>
+        <v>1841</v>
       </c>
       <c r="G502" t="s">
         <v>156</v>
@@ -41524,22 +41542,22 @@
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>156</v>
+        <v>1412</v>
       </c>
       <c r="B503" t="s">
-        <v>156</v>
+        <v>7</v>
       </c>
       <c r="C503" t="s">
-        <v>156</v>
+        <v>1448</v>
       </c>
       <c r="D503" t="s">
-        <v>156</v>
+        <v>1766</v>
       </c>
       <c r="E503" t="s">
-        <v>156</v>
+        <v>1799</v>
       </c>
       <c r="F503" t="s">
-        <v>156</v>
+        <v>1839</v>
       </c>
       <c r="G503" t="s">
         <v>156</v>
@@ -41547,22 +41565,22 @@
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>1439</v>
+        <v>1412</v>
       </c>
       <c r="B504" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C504" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
       <c r="D504" t="s">
-        <v>1748</v>
+        <v>1767</v>
       </c>
       <c r="E504" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F504" t="s">
-        <v>372</v>
+        <v>1842</v>
       </c>
       <c r="G504" t="s">
         <v>156</v>
@@ -41576,16 +41594,16 @@
         <v>7</v>
       </c>
       <c r="C505" t="s">
-        <v>1458</v>
+        <v>1462</v>
       </c>
       <c r="D505" t="s">
-        <v>1749</v>
+        <v>1768</v>
       </c>
       <c r="E505" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F505" t="s">
-        <v>210</v>
+        <v>1839</v>
       </c>
       <c r="G505" t="s">
         <v>156</v>
@@ -41622,16 +41640,16 @@
         <v>7</v>
       </c>
       <c r="C507" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="D507" t="s">
-        <v>1750</v>
+        <v>1769</v>
       </c>
       <c r="E507" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F507" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="G507" t="s">
         <v>156</v>
@@ -41645,16 +41663,16 @@
         <v>7</v>
       </c>
       <c r="C508" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D508" t="s">
-        <v>1751</v>
+        <v>1770</v>
       </c>
       <c r="E508" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F508" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="G508" t="s">
         <v>156</v>
@@ -41668,13 +41686,13 @@
         <v>10</v>
       </c>
       <c r="C509" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D509" t="s">
-        <v>1752</v>
+        <v>1771</v>
       </c>
       <c r="E509" t="s">
-        <v>1791</v>
+        <v>1800</v>
       </c>
       <c r="F509" t="s">
         <v>192</v>
@@ -41714,16 +41732,16 @@
         <v>7</v>
       </c>
       <c r="C511" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D511" t="s">
-        <v>1753</v>
+        <v>1772</v>
       </c>
       <c r="E511" t="s">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="F511" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="G511" t="s">
         <v>156</v>
@@ -41737,13 +41755,13 @@
         <v>8</v>
       </c>
       <c r="C512" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D512" t="s">
-        <v>1754</v>
+        <v>1773</v>
       </c>
       <c r="E512" t="s">
-        <v>1792</v>
+        <v>1801</v>
       </c>
       <c r="F512" t="s">
         <v>135</v>
@@ -41760,13 +41778,13 @@
         <v>8</v>
       </c>
       <c r="C513" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D513" t="s">
-        <v>1755</v>
+        <v>1774</v>
       </c>
       <c r="E513" t="s">
-        <v>1792</v>
+        <v>1801</v>
       </c>
       <c r="F513" t="s">
         <v>135</v>
@@ -41783,13 +41801,13 @@
         <v>8</v>
       </c>
       <c r="C514" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D514" t="s">
-        <v>1756</v>
+        <v>1775</v>
       </c>
       <c r="E514" t="s">
-        <v>1792</v>
+        <v>1801</v>
       </c>
       <c r="F514" t="s">
         <v>135</v>
@@ -41806,16 +41824,16 @@
         <v>9</v>
       </c>
       <c r="C515" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D515" t="s">
-        <v>1757</v>
+        <v>1776</v>
       </c>
       <c r="E515" t="s">
-        <v>1793</v>
+        <v>1802</v>
       </c>
       <c r="F515" t="s">
-        <v>1835</v>
+        <v>1843</v>
       </c>
       <c r="G515" t="s">
         <v>156</v>
@@ -41829,16 +41847,16 @@
         <v>9</v>
       </c>
       <c r="C516" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="D516" t="s">
-        <v>1758</v>
+        <v>1777</v>
       </c>
       <c r="E516" t="s">
-        <v>1793</v>
+        <v>1802</v>
       </c>
       <c r="F516" t="s">
-        <v>1832</v>
+        <v>1837</v>
       </c>
       <c r="G516" t="s">
         <v>156</v>
@@ -41852,16 +41870,16 @@
         <v>9</v>
       </c>
       <c r="C517" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="D517" t="s">
-        <v>1759</v>
+        <v>1778</v>
       </c>
       <c r="E517" t="s">
-        <v>1793</v>
+        <v>1802</v>
       </c>
       <c r="F517" t="s">
-        <v>1836</v>
+        <v>1841</v>
       </c>
       <c r="G517" t="s">
         <v>156</v>
@@ -41869,22 +41887,22 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>1436</v>
+        <v>156</v>
       </c>
       <c r="B518" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="C518" t="s">
-        <v>1458</v>
+        <v>156</v>
       </c>
       <c r="D518" t="s">
-        <v>1760</v>
+        <v>156</v>
       </c>
       <c r="E518" t="s">
-        <v>1793</v>
+        <v>156</v>
       </c>
       <c r="F518" t="s">
-        <v>304</v>
+        <v>156</v>
       </c>
       <c r="G518" t="s">
         <v>156</v>
@@ -41892,22 +41910,22 @@
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>1427</v>
+        <v>1412</v>
       </c>
       <c r="B519" t="s">
         <v>7</v>
       </c>
       <c r="C519" t="s">
-        <v>1453</v>
+        <v>1468</v>
       </c>
       <c r="D519" t="s">
-        <v>1761</v>
+        <v>1769</v>
       </c>
       <c r="E519" t="s">
-        <v>1794</v>
+        <v>1799</v>
       </c>
       <c r="F519" t="s">
-        <v>372</v>
+        <v>1839</v>
       </c>
       <c r="G519" t="s">
         <v>156</v>
@@ -41915,22 +41933,22 @@
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>156</v>
+        <v>1412</v>
       </c>
       <c r="B520" t="s">
-        <v>156</v>
+        <v>7</v>
       </c>
       <c r="C520" t="s">
-        <v>156</v>
+        <v>1462</v>
       </c>
       <c r="D520" t="s">
-        <v>156</v>
+        <v>1770</v>
       </c>
       <c r="E520" t="s">
-        <v>156</v>
+        <v>1799</v>
       </c>
       <c r="F520" t="s">
-        <v>156</v>
+        <v>1839</v>
       </c>
       <c r="G520" t="s">
         <v>156</v>
@@ -41938,22 +41956,22 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="B521" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C521" t="s">
-        <v>1465</v>
+        <v>1458</v>
       </c>
       <c r="D521" t="s">
-        <v>1762</v>
+        <v>1771</v>
       </c>
       <c r="E521" t="s">
-        <v>1794</v>
+        <v>1800</v>
       </c>
       <c r="F521" t="s">
-        <v>1837</v>
+        <v>192</v>
       </c>
       <c r="G521" t="s">
         <v>156</v>
@@ -41961,22 +41979,22 @@
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>1427</v>
+        <v>156</v>
       </c>
       <c r="B522" t="s">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="C522" t="s">
-        <v>1454</v>
+        <v>156</v>
       </c>
       <c r="D522" t="s">
-        <v>1763</v>
+        <v>156</v>
       </c>
       <c r="E522" t="s">
-        <v>1794</v>
+        <v>156</v>
       </c>
       <c r="F522" t="s">
-        <v>372</v>
+        <v>156</v>
       </c>
       <c r="G522" t="s">
         <v>156</v>
@@ -41984,22 +42002,22 @@
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>1424</v>
+        <v>1412</v>
       </c>
       <c r="B523" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C523" t="s">
-        <v>1450</v>
+        <v>1457</v>
       </c>
       <c r="D523" t="s">
-        <v>432</v>
+        <v>1772</v>
       </c>
       <c r="E523" t="s">
-        <v>1794</v>
+        <v>1799</v>
       </c>
       <c r="F523" t="s">
-        <v>1829</v>
+        <v>1839</v>
       </c>
       <c r="G523" t="s">
         <v>156</v>
@@ -42007,22 +42025,22 @@
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B524" t="s">
-        <v>1448</v>
+        <v>8</v>
       </c>
       <c r="C524" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D524" t="s">
-        <v>1764</v>
+        <v>1773</v>
       </c>
       <c r="E524" t="s">
-        <v>1794</v>
+        <v>1801</v>
       </c>
       <c r="F524" t="s">
-        <v>1832</v>
+        <v>135</v>
       </c>
       <c r="G524" t="s">
         <v>156</v>
@@ -42039,13 +42057,13 @@
         <v>1462</v>
       </c>
       <c r="D525" t="s">
-        <v>1765</v>
+        <v>1774</v>
       </c>
       <c r="E525" t="s">
-        <v>1795</v>
+        <v>1801</v>
       </c>
       <c r="F525" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="G525" t="s">
         <v>156</v>
@@ -42053,22 +42071,22 @@
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>1424</v>
+        <v>1441</v>
       </c>
       <c r="B526" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C526" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D526" t="s">
-        <v>1766</v>
+        <v>1775</v>
       </c>
       <c r="E526" t="s">
-        <v>1796</v>
+        <v>1801</v>
       </c>
       <c r="F526" t="s">
-        <v>1829</v>
+        <v>135</v>
       </c>
       <c r="G526" t="s">
         <v>156</v>
@@ -42082,16 +42100,16 @@
         <v>9</v>
       </c>
       <c r="C527" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D527" t="s">
-        <v>1767</v>
+        <v>1776</v>
       </c>
       <c r="E527" t="s">
-        <v>1797</v>
+        <v>1802</v>
       </c>
       <c r="F527" t="s">
-        <v>227</v>
+        <v>1843</v>
       </c>
       <c r="G527" t="s">
         <v>156</v>
@@ -42105,16 +42123,16 @@
         <v>9</v>
       </c>
       <c r="C528" t="s">
-        <v>1452</v>
+        <v>1463</v>
       </c>
       <c r="D528" t="s">
-        <v>1768</v>
+        <v>1777</v>
       </c>
       <c r="E528" t="s">
-        <v>1798</v>
+        <v>1802</v>
       </c>
       <c r="F528" t="s">
-        <v>227</v>
+        <v>1837</v>
       </c>
       <c r="G528" t="s">
         <v>156</v>
@@ -42128,16 +42146,16 @@
         <v>9</v>
       </c>
       <c r="C529" t="s">
-        <v>1452</v>
+        <v>1463</v>
       </c>
       <c r="D529" t="s">
-        <v>1769</v>
+        <v>1778</v>
       </c>
       <c r="E529" t="s">
-        <v>1797</v>
+        <v>1802</v>
       </c>
       <c r="F529" t="s">
-        <v>152</v>
+        <v>1841</v>
       </c>
       <c r="G529" t="s">
         <v>156</v>
@@ -42151,13 +42169,13 @@
         <v>9</v>
       </c>
       <c r="C530" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D530" t="s">
-        <v>1770</v>
+        <v>1779</v>
       </c>
       <c r="E530" t="s">
-        <v>1797</v>
+        <v>1803</v>
       </c>
       <c r="F530" t="s">
         <v>227</v>
@@ -42168,19 +42186,19 @@
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B531" t="s">
         <v>11</v>
       </c>
       <c r="C531" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D531" t="s">
-        <v>1771</v>
+        <v>1780</v>
       </c>
       <c r="E531" t="s">
-        <v>1799</v>
+        <v>1804</v>
       </c>
       <c r="F531" t="s">
         <v>130</v>
@@ -42191,19 +42209,19 @@
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B532" t="s">
         <v>13</v>
       </c>
       <c r="C532" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D532" t="s">
-        <v>1772</v>
+        <v>1781</v>
       </c>
       <c r="E532" t="s">
-        <v>1800</v>
+        <v>1805</v>
       </c>
       <c r="F532" t="s">
         <v>255</v>
@@ -42214,19 +42232,19 @@
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B533" t="s">
         <v>9</v>
       </c>
       <c r="C533" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D533" t="s">
-        <v>1773</v>
+        <v>1782</v>
       </c>
       <c r="E533" t="s">
-        <v>1801</v>
+        <v>1806</v>
       </c>
       <c r="F533" t="s">
         <v>230</v>
@@ -42237,19 +42255,19 @@
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B534" t="s">
         <v>9</v>
       </c>
       <c r="C534" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D534" t="s">
-        <v>1774</v>
+        <v>1783</v>
       </c>
       <c r="E534" t="s">
-        <v>1802</v>
+        <v>1807</v>
       </c>
       <c r="F534" t="s">
         <v>230</v>
@@ -42266,13 +42284,13 @@
         <v>7</v>
       </c>
       <c r="C535" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D535" t="s">
-        <v>1775</v>
+        <v>1784</v>
       </c>
       <c r="E535" t="s">
-        <v>1802</v>
+        <v>1807</v>
       </c>
       <c r="F535" t="s">
         <v>124</v>
@@ -42283,19 +42301,19 @@
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B536" t="s">
         <v>9</v>
       </c>
       <c r="C536" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D536" t="s">
-        <v>1776</v>
+        <v>1785</v>
       </c>
       <c r="E536" t="s">
-        <v>1802</v>
+        <v>1807</v>
       </c>
       <c r="F536" t="s">
         <v>158</v>
@@ -42306,22 +42324,22 @@
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B537" t="s">
         <v>7</v>
       </c>
       <c r="C537" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D537" t="s">
-        <v>1777</v>
+        <v>1786</v>
       </c>
       <c r="E537" t="s">
-        <v>1803</v>
+        <v>1808</v>
       </c>
       <c r="F537" t="s">
-        <v>1832</v>
+        <v>1837</v>
       </c>
       <c r="G537" t="s">
         <v>156</v>
@@ -42329,22 +42347,22 @@
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B538" t="s">
         <v>7</v>
       </c>
       <c r="C538" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D538" t="s">
-        <v>1778</v>
+        <v>1787</v>
       </c>
       <c r="E538" t="s">
-        <v>1803</v>
+        <v>1808</v>
       </c>
       <c r="F538" t="s">
-        <v>1832</v>
+        <v>1837</v>
       </c>
       <c r="G538" t="s">
         <v>156</v>
@@ -42358,13 +42376,13 @@
         <v>7</v>
       </c>
       <c r="C539" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="D539" t="s">
-        <v>1779</v>
+        <v>1788</v>
       </c>
       <c r="E539" t="s">
-        <v>1803</v>
+        <v>1808</v>
       </c>
       <c r="F539" t="s">
         <v>280</v>
@@ -42375,19 +42393,19 @@
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B540" t="s">
         <v>9</v>
       </c>
       <c r="C540" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D540" t="s">
-        <v>1780</v>
+        <v>1789</v>
       </c>
       <c r="E540" t="s">
-        <v>1803</v>
+        <v>1808</v>
       </c>
       <c r="F540" t="s">
         <v>136</v>
